--- a/jpcore-r4/feature/swg3-practionerRole対応/CodeSystem-jp-procedure-devicekind-cs.xlsx
+++ b/jpcore-r4/feature/swg3-practionerRole対応/CodeSystem-jp-procedure-devicekind-cs.xlsx
@@ -41,7 +41,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>JP Core Procedure DeviceKind</t>
+    <t>JP Core Procedure Device Kind</t>
   </si>
   <si>
     <t>Status</t>
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T13:52:43+00:00</t>
+    <t>2022-08-03T11:17:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -80,7 +80,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Codes used to identify medical devices.</t>
+    <t>処置の実施に利用された医療機器を識別するコード</t>
   </si>
   <si>
     <t>Purpose</t>
